--- a/JAVA 20 - NgoNhatNguyen - Database Design.xlsx
+++ b/JAVA 20 - NgoNhatNguyen - Database Design.xlsx
@@ -3,16 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E609E9-8C59-4644-B9C2-12FA650ABD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63415972-2DCE-440F-BAC5-85F18EA6D3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1965" windowWidth="28800" windowHeight="15435" tabRatio="422" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2412" yWindow="1092" windowWidth="17280" windowHeight="8964" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B1. Mô hình quan niệm (2)" sheetId="5" r:id="rId1"/>
-    <sheet name="B1. Mô hình quan niệm" sheetId="1" r:id="rId2"/>
-    <sheet name="B2. Mô hình logic" sheetId="2" r:id="rId3"/>
-    <sheet name="B3. Mô hình quan hệ" sheetId="3" r:id="rId4"/>
-    <sheet name="4. Cơ sở dữ liệu vật lý" sheetId="4" r:id="rId5"/>
+    <sheet name="B1. Mô hình quan niệm" sheetId="1" r:id="rId1"/>
+    <sheet name="B2. Mô hình logic" sheetId="2" r:id="rId2"/>
+    <sheet name="B3. Mô hình quan hệ" sheetId="3" r:id="rId3"/>
+    <sheet name="4. Cơ sở dữ liệu vật lý" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -188,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="100">
   <si>
     <t>Xác định các đối tượng cần lưu trữ
 Xác định các thuộc tính, thông tin của từng đối tượng</t>
@@ -206,9 +205,6 @@
     <t>xml</t>
   </si>
   <si>
-    <t>ITEM_GROUP</t>
-  </si>
-  <si>
     <t>Cơ sở dữ liệu</t>
   </si>
   <si>
@@ -221,40 +217,13 @@
     <t>Không hỗ trợ KDL danh sách</t>
   </si>
   <si>
-    <t>PROVIDER</t>
-  </si>
-  <si>
     <t>Đối tượng</t>
   </si>
   <si>
     <t>Danh sách</t>
   </si>
   <si>
-    <t>TITLE</t>
-  </si>
-  <si>
     <t>Không có khái niệm thừa kế, nếu 2 hoặc nhiều bảng trùng các thuộc tính, vẫn để thuộc tính ở các bảng khác nhau</t>
-  </si>
-  <si>
-    <t>Inheritance &amp; Composition</t>
-  </si>
-  <si>
-    <t>ORDER</t>
-  </si>
-  <si>
-    <t>PAYMENT_METHOD</t>
-  </si>
-  <si>
-    <t>BILL</t>
-  </si>
-  <si>
-    <t>DELIVERY_STATUS</t>
-  </si>
-  <si>
-    <t>DEPARTMENT</t>
-  </si>
-  <si>
-    <t>CRON JOB</t>
   </si>
   <si>
     <t>1. Xác định lại các tập thực thể</t>
@@ -596,71 +565,101 @@
     </r>
   </si>
   <si>
-    <t>Table A</t>
-  </si>
-  <si>
-    <t>Table B</t>
-  </si>
-  <si>
-    <t>Table C</t>
-  </si>
-  <si>
-    <t>field 1</t>
-  </si>
-  <si>
-    <t>field 2</t>
-  </si>
-  <si>
-    <t>field 3</t>
-  </si>
-  <si>
-    <t>field 4</t>
-  </si>
-  <si>
-    <t>field 5</t>
-  </si>
-  <si>
-    <t>..</t>
-  </si>
-  <si>
-    <t>Field 1</t>
-  </si>
-  <si>
-    <t>Field 2</t>
-  </si>
-  <si>
-    <t>Field 3</t>
-  </si>
-  <si>
-    <t>Field 4</t>
-  </si>
-  <si>
-    <t>Field 5</t>
-  </si>
-  <si>
     <t>B2. Mô hình logic 
 ERD</t>
   </si>
   <si>
-    <t>Object 1</t>
-  </si>
-  <si>
-    <t>Att 1</t>
-  </si>
-  <si>
-    <t>Att 2</t>
-  </si>
-  <si>
-    <t>Att 3</t>
-  </si>
-  <si>
-    <t>Object 2</t>
-  </si>
-  <si>
-    <t>Object 3</t>
-  </si>
-  <si>
-    <t>Object 4</t>
+    <t>16. Build Shopping database</t>
+  </si>
+  <si>
+    <t>Mặt hàng</t>
+  </si>
+  <si>
+    <t>Mã mặt hàng</t>
+  </si>
+  <si>
+    <t>Tên mặt hàng</t>
+  </si>
+  <si>
+    <t>Giá bán</t>
+  </si>
+  <si>
+    <t>Loại sản phẩm</t>
+  </si>
+  <si>
+    <t>Kích thước</t>
+  </si>
+  <si>
+    <t>Nhóm sản phẩm</t>
+  </si>
+  <si>
+    <t>Mã nhóm</t>
+  </si>
+  <si>
+    <t>Tên nhóm</t>
+  </si>
+  <si>
+    <t>Mã loại sp</t>
+  </si>
+  <si>
+    <t>Tên loại sp</t>
+  </si>
+  <si>
+    <t>Đơn hàng</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng</t>
+  </si>
+  <si>
+    <t>Mã khách hàng</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Tình trạng</t>
+  </si>
+  <si>
+    <t>Ngày đặt hàng</t>
+  </si>
+  <si>
+    <t>Loại hình thanh toán</t>
+  </si>
+  <si>
+    <t>Chi tiết đơn hàng</t>
+  </si>
+  <si>
+    <t>Mã sản phẩm</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Màu sắc</t>
+  </si>
+  <si>
+    <t>Khách hàng</t>
+  </si>
+  <si>
+    <t>Mã Khách hàng</t>
+  </si>
+  <si>
+    <t>Tên Khách hàng</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>Mã nhân viên</t>
+  </si>
+  <si>
+    <t>Tên nhân viên</t>
   </si>
 </sst>
 </file>
@@ -739,7 +738,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -767,6 +766,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,7 +803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -865,6 +870,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1201,44 +1209,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2EE39A-42C2-4199-9C19-40FCCF443789}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="48" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="1" customWidth="1"/>
-    <col min="8" max="11" width="22.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" style="1" customWidth="1"/>
-    <col min="13" max="101" width="22.7109375" style="1" customWidth="1"/>
-    <col min="102" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" style="1" customWidth="1"/>
+    <col min="8" max="11" width="22.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.5546875" style="1" customWidth="1"/>
+    <col min="13" max="101" width="22.6640625" style="1" customWidth="1"/>
+    <col min="102" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -1249,7 +1255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
@@ -1260,132 +1266,164 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>84</v>
-      </c>
+    <row r="10" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>85</v>
-      </c>
+    <row r="11" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
+    <row r="12" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1394,11 +1432,13 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1407,11 +1447,13 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1420,7 +1462,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1433,7 +1475,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1446,7 +1488,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1459,7 +1501,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1472,7 +1514,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1485,69 +1527,70 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="C22" s="5"/>
       <c r="E22" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:D4"/>
+    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1555,37 +1598,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D4"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="1" customWidth="1"/>
-    <col min="8" max="11" width="22.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" style="1" customWidth="1"/>
-    <col min="13" max="101" width="22.7109375" style="1" customWidth="1"/>
-    <col min="102" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="32.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" style="1" customWidth="1"/>
+    <col min="8" max="11" width="22.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.5546875" style="1" customWidth="1"/>
+    <col min="13" max="101" width="22.6640625" style="1" customWidth="1"/>
+    <col min="102" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
     </row>
-    <row r="3" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -1596,7 +1639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
@@ -1606,395 +1649,64 @@
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="E22" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S51"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="1" customWidth="1"/>
-    <col min="8" max="11" width="22.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" style="1" customWidth="1"/>
-    <col min="13" max="101" width="22.7109375" style="1" customWidth="1"/>
-    <col min="102" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="Q5" s="11"/>
       <c r="R5" s="12"/>
       <c r="S5" s="13"/>
     </row>
-    <row r="6" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2008,7 +1720,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2022,7 +1734,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2037,7 +1749,7 @@
       <c r="M8" s="3"/>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2049,7 +1761,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2065,7 +1777,7 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="12"/>
     </row>
-    <row r="11" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2079,7 +1791,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2091,7 +1803,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2106,7 +1818,7 @@
       <c r="M13" s="3"/>
       <c r="Q13" s="14"/>
     </row>
-    <row r="14" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2122,7 +1834,7 @@
       <c r="Q14" s="11"/>
       <c r="R14" s="12"/>
     </row>
-    <row r="15" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2138,7 +1850,7 @@
       <c r="Q15" s="11"/>
       <c r="R15" s="12"/>
     </row>
-    <row r="16" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2153,7 +1865,7 @@
       <c r="Q16" s="11"/>
       <c r="R16" s="12"/>
     </row>
-    <row r="17" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2169,7 +1881,7 @@
       <c r="Q17" s="11"/>
       <c r="R17" s="12"/>
     </row>
-    <row r="18" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2183,7 +1895,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2197,13 +1909,13 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="25" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2214,10 +1926,10 @@
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="25"/>
       <c r="B22" s="8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2228,10 +1940,10 @@
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2241,12 +1953,12 @@
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="26" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -2257,24 +1969,24 @@
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="27"/>
       <c r="B25" s="9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="8"/>
       <c r="C26" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2282,31 +1994,31 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:18" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:D4"/>
@@ -2320,7 +2032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W51"/>
   <sheetViews>
@@ -2328,26 +2040,26 @@
       <selection activeCell="D1" sqref="D1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="53.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.5703125" style="1" customWidth="1"/>
-    <col min="12" max="15" width="22.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="30.5703125" style="1" customWidth="1"/>
-    <col min="17" max="105" width="22.7109375" style="1" customWidth="1"/>
-    <col min="106" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="30.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="53.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.5546875" style="1" customWidth="1"/>
+    <col min="12" max="15" width="22.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="30.5546875" style="1" customWidth="1"/>
+    <col min="17" max="105" width="22.6640625" style="1" customWidth="1"/>
+    <col min="106" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
@@ -2356,7 +2068,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -2369,7 +2081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -2382,90 +2094,90 @@
         <v>3</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W4" s="1" t="s">
+      <c r="G5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="K5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="M5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="21" t="s">
+      <c r="N5" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="O5" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="P5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="P5" s="21" t="s">
-        <v>57</v>
-      </c>
       <c r="Q5" s="21" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="S5" s="1">
         <v>1</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="W5" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -2483,7 +2195,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2501,7 +2213,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2520,7 +2232,7 @@
       <c r="Q8" s="3"/>
       <c r="U8" s="11"/>
     </row>
-    <row r="9" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2538,7 +2250,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2558,7 +2270,7 @@
       <c r="U10" s="11"/>
       <c r="V10" s="12"/>
     </row>
-    <row r="11" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2575,7 +2287,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2593,7 +2305,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2612,7 +2324,7 @@
       <c r="Q13" s="3"/>
       <c r="U13" s="14"/>
     </row>
-    <row r="14" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2632,7 +2344,7 @@
       <c r="U14" s="11"/>
       <c r="V14" s="12"/>
     </row>
-    <row r="15" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2652,7 +2364,7 @@
       <c r="U15" s="11"/>
       <c r="V15" s="12"/>
     </row>
-    <row r="16" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2671,7 +2383,7 @@
       <c r="U16" s="11"/>
       <c r="V16" s="12"/>
     </row>
-    <row r="17" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2691,7 +2403,7 @@
       <c r="U17" s="11"/>
       <c r="V17" s="12"/>
     </row>
-    <row r="18" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2709,7 +2421,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2727,11 +2439,11 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="16"/>
       <c r="B21" s="22" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -2742,16 +2454,16 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="17" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
     </row>
-    <row r="22" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="16"/>
       <c r="B22" s="22" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -2762,15 +2474,15 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="18" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
     </row>
-    <row r="23" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="22" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -2781,15 +2493,15 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="19" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
     </row>
-    <row r="24" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="22" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -2804,7 +2516,7 @@
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
     </row>
-    <row r="25" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2817,34 +2529,34 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D4"/>
@@ -2855,141 +2567,141 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="54" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="255.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="255.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="17" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="19" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="20" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="21" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
